--- a/output/1Y_P80_1VAL-D.xlsx
+++ b/output/1Y_P80_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>622.952</v>
       </c>
-      <c r="G2" s="1">
-        <v>622.952</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.108099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.0526</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.108099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E3" s="1">
+        <v>622.952</v>
+      </c>
       <c r="F3" s="1">
         <v>634.6708</v>
       </c>
-      <c r="G3" s="1">
-        <v>1257.6228</v>
-      </c>
       <c r="H3" s="1">
-        <v>19712.6092</v>
+        <v>9764.461799999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.903</v>
+        <v>9764.461799999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.0526</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19712.6092</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0118</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E4" s="1">
+        <v>1257.6228</v>
+      </c>
       <c r="F4" s="1">
         <v>651.0205</v>
       </c>
-      <c r="G4" s="1">
-        <v>1908.6433</v>
-      </c>
       <c r="H4" s="1">
-        <v>29165.5968</v>
+        <v>19217.4831</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.718</v>
+        <v>19217.4831</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.903</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29165.5968</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0184</v>
+        <v>-0.0277</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E5" s="1">
+        <v>1908.6433</v>
+      </c>
       <c r="F5" s="1">
         <v>654.4674</v>
       </c>
-      <c r="G5" s="1">
-        <v>2563.1107</v>
-      </c>
       <c r="H5" s="1">
-        <v>38960.0517</v>
+        <v>29011.951</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.606</v>
+        <v>29011.951</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.718</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38960.0517</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0052</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E6" s="1">
+        <v>2563.1107</v>
+      </c>
       <c r="F6" s="1">
         <v>649.2578999999999</v>
       </c>
-      <c r="G6" s="1">
-        <v>3212.3686</v>
-      </c>
       <c r="H6" s="1">
-        <v>49220.8755</v>
+        <v>39272.7512</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5648</v>
+        <v>39272.7512</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.606</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49220.8755</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0053</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.042</v>
       </c>
+      <c r="E7" s="1">
+        <v>3212.3686</v>
+      </c>
       <c r="F7" s="1">
         <v>623.3637</v>
       </c>
-      <c r="G7" s="1">
-        <v>3835.7323</v>
-      </c>
       <c r="H7" s="1">
-        <v>61214.0679</v>
+        <v>51265.8694</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.6424</v>
+        <v>51265.8694</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.5648</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61214.0679</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0337</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E8" s="1">
+        <v>3835.7323</v>
+      </c>
       <c r="F8" s="1">
         <v>631.1458</v>
       </c>
-      <c r="G8" s="1">
-        <v>4466.8781</v>
-      </c>
       <c r="H8" s="1">
-        <v>70406.932</v>
+        <v>60458.8122</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6709</v>
+        <v>60458.8122</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.6424</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70406.932</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0113</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E9" s="1">
+        <v>4466.8781</v>
+      </c>
       <c r="F9" s="1">
         <v>626.1387999999999</v>
       </c>
-      <c r="G9" s="1">
-        <v>5093.0169</v>
-      </c>
       <c r="H9" s="1">
-        <v>80917.8517</v>
+        <v>70969.7586</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7078</v>
+        <v>70969.7586</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6709</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80917.8517</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0064</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.743</v>
       </c>
+      <c r="E10" s="1">
+        <v>5093.0169</v>
+      </c>
       <c r="F10" s="1">
         <v>597.2645</v>
       </c>
-      <c r="G10" s="1">
-        <v>5690.2814</v>
-      </c>
       <c r="H10" s="1">
-        <v>94778.4647</v>
+        <v>84830.3073</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8164</v>
+        <v>84830.3073</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.7078</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94778.4647</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0425</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E11" s="1">
+        <v>5690.2814</v>
+      </c>
       <c r="F11" s="1">
         <v>567.553</v>
       </c>
-      <c r="G11" s="1">
-        <v>6257.8344</v>
-      </c>
       <c r="H11" s="1">
-        <v>109687.9467</v>
+        <v>99739.821</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.98</v>
+        <v>99739.821</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8164</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>109687.9467</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0469</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E12" s="1">
+        <v>6257.8344</v>
+      </c>
       <c r="F12" s="1">
         <v>566.104</v>
       </c>
-      <c r="G12" s="1">
-        <v>6823.9383</v>
-      </c>
       <c r="H12" s="1">
-        <v>119917.0683</v>
+        <v>109968.9235</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.1197</v>
+        <v>109968.9235</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.98</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119917.0683</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0019</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E13" s="1">
+        <v>6823.9383</v>
+      </c>
       <c r="F13" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G13" s="1">
-        <v>7403.3529</v>
-      </c>
       <c r="H13" s="1">
-        <v>127110.3868</v>
+        <v>117162.2444</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.2089</v>
+        <v>117162.2444</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.1197</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127110.3868</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0216</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E14" s="1">
+        <v>7403.3529</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7403.3529</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6823.9383</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124077.2332</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.2089</v>
+        <v>124077.2332</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14.8581</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.47</v>
       </c>
-      <c r="L14" s="1">
-        <v>3131.6183</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>127208.8514</v>
+        <v>2886.5259</v>
       </c>
       <c r="O14" s="1">
-        <v>127208.8514</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127208.8514</v>
+        <v>117253.0028</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0722</v>
+        <v>-0.0243</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.0526</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>622.952</v>
       </c>
       <c r="G2" s="1">
-        <v>622.952</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.108099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.0526</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.108099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.7562</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>622.952</v>
       </c>
       <c r="F3" s="1">
         <v>634.6708</v>
       </c>
       <c r="G3" s="1">
-        <v>1257.6228</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19712.6092</v>
+        <v>9764.461799999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.903</v>
+        <v>9764.461799999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.0526</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19712.6092</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0118</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.3605</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1257.6228</v>
       </c>
       <c r="F4" s="1">
         <v>651.0205</v>
       </c>
       <c r="G4" s="1">
-        <v>1908.6433</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29165.5968</v>
+        <v>19217.4831</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.718</v>
+        <v>19217.4831</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.903</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29165.5968</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0184</v>
+        <v>-0.0277</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.2796</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1908.6433</v>
       </c>
       <c r="F5" s="1">
         <v>654.4674</v>
       </c>
       <c r="G5" s="1">
-        <v>2563.1107</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>38960.0517</v>
+        <v>29011.951</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.606</v>
+        <v>29011.951</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.718</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38960.0517</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0052</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.4022</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2563.1107</v>
       </c>
       <c r="F6" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3212.3686</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49220.8755</v>
+        <v>39272.7512</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5648</v>
+        <v>39272.7512</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.606</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49220.8755</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0053</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.042</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3212.3686</v>
       </c>
       <c r="F7" s="1">
         <v>547.289</v>
       </c>
       <c r="G7" s="1">
-        <v>3759.6576</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51265.8694</v>
       </c>
       <c r="I7" s="1">
-        <v>58779.6103</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.6343</v>
+        <v>51265.8694</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48779.6103</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.1849</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8779.6103</v>
       </c>
-      <c r="O7" s="1">
-        <v>1220.3897</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61220.3897</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0338</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.8442</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3759.6576</v>
       </c>
       <c r="F8" s="1">
         <v>681.4032</v>
       </c>
       <c r="G8" s="1">
-        <v>4441.0608</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>59259.7234</v>
       </c>
       <c r="I8" s="1">
-        <v>69575.8983</v>
+        <v>1220.3897</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6665</v>
+        <v>60480.1131</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59575.8983</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.8461</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10796.2879</v>
       </c>
-      <c r="O8" s="1">
-        <v>424.1017</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70424.1017</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0112</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.9709</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4441.0608</v>
       </c>
       <c r="F9" s="1">
         <v>594.1858999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>5035.2467</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70559.57369999999</v>
       </c>
       <c r="I9" s="1">
-        <v>79065.58259999999</v>
+        <v>424.1017</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7024</v>
+        <v>70983.67539999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69065.58259999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.5516</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9489.6844</v>
       </c>
-      <c r="O9" s="1">
-        <v>934.4174</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80934.41740000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0063</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.743</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5035.2467</v>
       </c>
       <c r="F10" s="1">
         <v>368.1466</v>
       </c>
       <c r="G10" s="1">
-        <v>5403.3933</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>83868.0765</v>
       </c>
       <c r="I10" s="1">
-        <v>85229.46120000001</v>
+        <v>934.4174</v>
       </c>
       <c r="J10" s="1">
-        <v>15.7733</v>
+        <v>84802.4939</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>75229.46120000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.9406</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6163.8786</v>
       </c>
-      <c r="O10" s="1">
-        <v>4770.5388</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94770.53879999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0422</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.6195</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5403.3933</v>
       </c>
       <c r="F11" s="1">
         <v>301.7316</v>
       </c>
       <c r="G11" s="1">
-        <v>5705.1249</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>94711.21859999999</v>
       </c>
       <c r="I11" s="1">
-        <v>90545.8208</v>
+        <v>4770.5388</v>
       </c>
       <c r="J11" s="1">
-        <v>15.871</v>
+        <v>99481.7574</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>80545.8208</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.9065</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5316.3596</v>
       </c>
-      <c r="O11" s="1">
-        <v>9454.1792</v>
-      </c>
-      <c r="P11" s="1">
-        <v>109454.1792</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0447</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.6646</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5705.1249</v>
       </c>
       <c r="F12" s="1">
         <v>554.4779</v>
       </c>
       <c r="G12" s="1">
-        <v>6259.6028</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>100256.1601</v>
       </c>
       <c r="I12" s="1">
-        <v>100340.4509</v>
+        <v>9454.1792</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0298</v>
+        <v>109710.3393</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>90340.4509</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.835</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9794.6301</v>
       </c>
-      <c r="O12" s="1">
-        <v>9659.5491</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119659.5491</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0017</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.2588</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6259.6028</v>
       </c>
       <c r="F13" s="1">
         <v>729.6163</v>
       </c>
       <c r="G13" s="1">
-        <v>6989.2191</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>107472.9983</v>
       </c>
       <c r="I13" s="1">
-        <v>112932.7532</v>
+        <v>9659.5491</v>
       </c>
       <c r="J13" s="1">
-        <v>16.1581</v>
+        <v>117132.5475</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102932.7532</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.444</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-12592.3023</v>
       </c>
-      <c r="O13" s="1">
-        <v>7067.2468</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127067.2468</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.02</v>
+        <v>-0.0215</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.8469</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6989.2191</v>
       </c>
       <c r="F14" s="1">
         <v>-6989.2191</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117136.5169</v>
       </c>
       <c r="I14" s="1">
-        <v>112932.7532</v>
+        <v>7067.2468</v>
       </c>
       <c r="J14" s="1">
-        <v>16.1581</v>
+        <v>124203.7637</v>
       </c>
       <c r="K14" s="1">
+        <v>102932.7532</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14.7274</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.47</v>
       </c>
-      <c r="L14" s="1">
-        <v>2956.4397</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>120092.9566</v>
+        <v>2647.812</v>
       </c>
       <c r="O14" s="1">
-        <v>127160.2034</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127160.2034</v>
+        <v>119784.3289</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0723</v>
+        <v>-0.023</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.0526</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>622.952</v>
       </c>
       <c r="G2" s="1">
-        <v>622.952</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.108099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.0526</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.108099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.7562</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>622.952</v>
       </c>
       <c r="F3" s="1">
         <v>634.6708</v>
       </c>
       <c r="G3" s="1">
-        <v>1257.6228</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19712.6092</v>
+        <v>9764.461799999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.903</v>
+        <v>9764.461799999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.0526</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19712.6092</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0118</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.3605</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1257.6228</v>
       </c>
       <c r="F4" s="1">
         <v>651.0205</v>
       </c>
       <c r="G4" s="1">
-        <v>1908.6433</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29165.5968</v>
+        <v>19217.4831</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.718</v>
+        <v>19217.4831</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.903</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29165.5968</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0184</v>
+        <v>-0.0277</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.2796</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1908.6433</v>
       </c>
       <c r="F5" s="1">
         <v>654.4674</v>
       </c>
       <c r="G5" s="1">
-        <v>2563.1107</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>38960.0517</v>
+        <v>29011.951</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.606</v>
+        <v>29011.951</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.718</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38960.0517</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0052</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.4022</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2563.1107</v>
       </c>
       <c r="F6" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3212.3686</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49220.8755</v>
+        <v>39272.7512</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5648</v>
+        <v>39272.7512</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.606</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49220.8755</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0053</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.042</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3212.3686</v>
       </c>
       <c r="F7" s="1">
         <v>594.5992</v>
       </c>
       <c r="G7" s="1">
-        <v>3806.9678</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>51265.8694</v>
       </c>
       <c r="I7" s="1">
-        <v>59538.5606</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.6394</v>
+        <v>51265.8694</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49538.5606</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.4212</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9538.560600000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>461.4394</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61216.4582</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0337</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.8442</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3806.9678</v>
       </c>
       <c r="F8" s="1">
         <v>660.2693</v>
       </c>
       <c r="G8" s="1">
-        <v>4467.2372</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>70412.59209999999</v>
+        <v>60005.4268</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>461.4394</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6696</v>
+        <v>60466.8662</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.7606</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10461.4394</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70412.59209999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0113</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.9709</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4467.2372</v>
       </c>
       <c r="F9" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>5093.3759</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>80923.55710000001</v>
+        <v>70975.46400000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7067</v>
+        <v>70975.46400000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6696</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80923.55710000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0064</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.743</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5093.3759</v>
       </c>
       <c r="F10" s="1">
         <v>419.3555</v>
       </c>
       <c r="G10" s="1">
-        <v>5512.7315</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>84836.2885</v>
       </c>
       <c r="I10" s="1">
-        <v>87021.2699</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.7855</v>
+        <v>84836.2885</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77021.2699</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.1219</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7021.2699</v>
       </c>
-      <c r="O10" s="1">
-        <v>2978.7301</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94799.8884</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0426</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.6195</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5512.7315</v>
       </c>
       <c r="F11" s="1">
         <v>322.4853</v>
       </c>
       <c r="G11" s="1">
-        <v>5835.2168</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>96627.7089</v>
       </c>
       <c r="I11" s="1">
-        <v>92703.3002</v>
+        <v>2978.7301</v>
       </c>
       <c r="J11" s="1">
-        <v>15.8869</v>
+        <v>99606.439</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>82703.3002</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.0022</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-5682.0304</v>
       </c>
-      <c r="O11" s="1">
-        <v>7296.6998</v>
-      </c>
-      <c r="P11" s="1">
-        <v>109576.9638</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0456</v>
+        <v>0.0503</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.6646</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5835.2168</v>
       </c>
       <c r="F12" s="1">
         <v>583.247</v>
       </c>
       <c r="G12" s="1">
-        <v>6418.4639</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>102542.2653</v>
       </c>
       <c r="I12" s="1">
-        <v>103006.1258</v>
+        <v>7296.6998</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0484</v>
+        <v>109838.9651</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93006.12579999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.9388</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10302.8255</v>
       </c>
-      <c r="O12" s="1">
-        <v>6993.8742</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119785.5396</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0017</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.2588</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6418.4639</v>
       </c>
       <c r="F13" s="1">
         <v>766.1985</v>
       </c>
       <c r="G13" s="1">
-        <v>7184.6624</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>110200.5315</v>
       </c>
       <c r="I13" s="1">
-        <v>116229.7927</v>
+        <v>6993.8742</v>
       </c>
       <c r="J13" s="1">
-        <v>16.1775</v>
+        <v>117194.4058</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>106229.7927</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.5507</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13223.667</v>
       </c>
-      <c r="O13" s="1">
-        <v>3770.2073</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127125.831</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0205</v>
+        <v>-0.0221</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>16.8469</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7184.6624</v>
       </c>
       <c r="F14" s="1">
         <v>-7184.6624</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120412.0676</v>
       </c>
       <c r="I14" s="1">
-        <v>116229.7927</v>
+        <v>3770.2073</v>
       </c>
       <c r="J14" s="1">
-        <v>16.1775</v>
+        <v>124182.2748</v>
       </c>
       <c r="K14" s="1">
+        <v>106229.7927</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14.7856</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.47</v>
       </c>
-      <c r="L14" s="1">
-        <v>3039.1122</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>123451.1797</v>
+        <v>2715.0102</v>
       </c>
       <c r="O14" s="1">
-        <v>127221.387</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127221.387</v>
+        <v>123127.0778</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0722</v>
+        <v>-0.0237</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.0526</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>622.952</v>
       </c>
       <c r="G2" s="1">
-        <v>622.952</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.108099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.0526</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.108099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.7562</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>622.952</v>
       </c>
       <c r="F3" s="1">
         <v>634.6708</v>
       </c>
       <c r="G3" s="1">
-        <v>1257.6228</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19712.6092</v>
+        <v>9764.461799999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.903</v>
+        <v>9764.461799999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.0526</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19712.6092</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0118</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.3605</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1257.6228</v>
       </c>
       <c r="F4" s="1">
         <v>651.0205</v>
       </c>
       <c r="G4" s="1">
-        <v>1908.6433</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29165.5968</v>
+        <v>19217.4831</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.718</v>
+        <v>19217.4831</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.903</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29165.5968</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0184</v>
+        <v>-0.0277</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.2796</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1908.6433</v>
       </c>
       <c r="F5" s="1">
         <v>654.4674</v>
       </c>
       <c r="G5" s="1">
-        <v>2563.1107</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>38960.0517</v>
+        <v>29011.951</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.606</v>
+        <v>29011.951</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.718</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38960.0517</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0052</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.4022</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2563.1107</v>
       </c>
       <c r="F6" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3212.3686</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49220.8755</v>
+        <v>39272.7512</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5648</v>
+        <v>39272.7512</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.606</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49220.8755</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0053</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.042</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3212.3686</v>
       </c>
       <c r="F7" s="1">
         <v>623.3637</v>
       </c>
       <c r="G7" s="1">
-        <v>3835.7323</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61214.0679</v>
+        <v>51265.8694</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.6424</v>
+        <v>51265.8694</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.5648</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61214.0679</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0337</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.8442</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3835.7323</v>
       </c>
       <c r="F8" s="1">
         <v>631.1458</v>
       </c>
       <c r="G8" s="1">
-        <v>4466.8781</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>70406.932</v>
+        <v>60458.8122</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6709</v>
+        <v>60458.8122</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.6424</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70406.932</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0113</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.9709</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4466.8781</v>
       </c>
       <c r="F9" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>5093.0169</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>80917.8517</v>
+        <v>70969.7586</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7078</v>
+        <v>70969.7586</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6709</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80917.8517</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0064</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.743</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5093.0169</v>
       </c>
       <c r="F10" s="1">
         <v>531.6318</v>
       </c>
       <c r="G10" s="1">
-        <v>5624.6486</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>84830.3073</v>
       </c>
       <c r="I10" s="1">
-        <v>88901.11109999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8056</v>
+        <v>84830.3073</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78901.11109999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.492</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8901.1111</v>
       </c>
-      <c r="O10" s="1">
-        <v>1098.8889</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94784.16160000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0425</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.6195</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5624.6486</v>
       </c>
       <c r="F11" s="1">
         <v>344.1743</v>
       </c>
       <c r="G11" s="1">
-        <v>5968.8229</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>98589.4038</v>
       </c>
       <c r="I11" s="1">
-        <v>94965.2902</v>
+        <v>1098.8889</v>
       </c>
       <c r="J11" s="1">
-        <v>15.9102</v>
+        <v>99688.2928</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84965.2902</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.1059</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6064.1791</v>
       </c>
-      <c r="O11" s="1">
-        <v>5034.7098</v>
-      </c>
-      <c r="P11" s="1">
-        <v>109656.8353</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0465</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.6646</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5968.8229</v>
       </c>
       <c r="F12" s="1">
         <v>613.3398</v>
       </c>
       <c r="G12" s="1">
-        <v>6582.1628</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>104890.1256</v>
       </c>
       <c r="I12" s="1">
-        <v>105799.6932</v>
+        <v>5034.7098</v>
       </c>
       <c r="J12" s="1">
-        <v>16.0737</v>
+        <v>109924.8354</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95799.69319999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.05</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10834.403</v>
       </c>
-      <c r="O12" s="1">
-        <v>4200.3068</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119868.6535</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0018</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.2588</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6582.1628</v>
       </c>
       <c r="F13" s="1">
         <v>804.5699</v>
       </c>
       <c r="G13" s="1">
-        <v>7386.7327</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>113011.1275</v>
       </c>
       <c r="I13" s="1">
-        <v>119685.6048</v>
+        <v>4200.3068</v>
       </c>
       <c r="J13" s="1">
-        <v>16.2028</v>
+        <v>117211.4344</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109685.6048</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6641</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13885.9116</v>
       </c>
-      <c r="O13" s="1">
-        <v>314.3952</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127139.4253</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.021</v>
+        <v>-0.0226</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>16.8469</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7386.7327</v>
       </c>
       <c r="F14" s="1">
         <v>-7386.7327</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123798.6857</v>
       </c>
       <c r="I14" s="1">
-        <v>119685.6048</v>
+        <v>314.3952</v>
       </c>
       <c r="J14" s="1">
-        <v>16.2028</v>
+        <v>124113.081</v>
       </c>
       <c r="K14" s="1">
+        <v>109685.6048</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14.849</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.47</v>
       </c>
-      <c r="L14" s="1">
-        <v>3124.5879</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>126923.2737</v>
+        <v>2784.2549</v>
       </c>
       <c r="O14" s="1">
-        <v>127237.6689</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127237.6689</v>
+        <v>126582.9406</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0722</v>
+        <v>-0.0244</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.0526</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>622.952</v>
       </c>
       <c r="G2" s="1">
-        <v>622.952</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.108099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.0526</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.108099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.7562</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>622.952</v>
       </c>
       <c r="F3" s="1">
         <v>634.6708</v>
       </c>
       <c r="G3" s="1">
-        <v>1257.6228</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19712.6092</v>
+        <v>9764.461799999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.903</v>
+        <v>9764.461799999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.0526</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19712.6092</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0118</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.3605</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1257.6228</v>
       </c>
       <c r="F4" s="1">
         <v>651.0205</v>
       </c>
       <c r="G4" s="1">
-        <v>1908.6433</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29165.5968</v>
+        <v>19217.4831</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.718</v>
+        <v>19217.4831</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.903</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29165.5968</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0184</v>
+        <v>-0.0277</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.2796</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1908.6433</v>
       </c>
       <c r="F5" s="1">
         <v>654.4674</v>
       </c>
       <c r="G5" s="1">
-        <v>2563.1107</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>38960.0517</v>
+        <v>29011.951</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.606</v>
+        <v>29011.951</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.718</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38960.0517</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0052</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.4022</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2563.1107</v>
       </c>
       <c r="F6" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3212.3686</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49220.8755</v>
+        <v>39272.7512</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.5648</v>
+        <v>39272.7512</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.606</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49220.8755</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0053</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.042</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3212.3686</v>
       </c>
       <c r="F7" s="1">
         <v>623.3637</v>
       </c>
       <c r="G7" s="1">
-        <v>3835.7323</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61214.0679</v>
+        <v>51265.8694</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.6424</v>
+        <v>51265.8694</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.5648</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61214.0679</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0337</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.8442</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3835.7323</v>
       </c>
       <c r="F8" s="1">
         <v>631.1458</v>
       </c>
       <c r="G8" s="1">
-        <v>4466.8781</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>70406.932</v>
+        <v>60458.8122</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.6709</v>
+        <v>60458.8122</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.6424</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70406.932</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0113</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.9709</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4466.8781</v>
       </c>
       <c r="F9" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>5093.0169</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>80917.8517</v>
+        <v>70969.7586</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.7078</v>
+        <v>70969.7586</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.6709</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80917.8517</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0064</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.743</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5093.0169</v>
       </c>
       <c r="F10" s="1">
         <v>597.2645</v>
       </c>
       <c r="G10" s="1">
-        <v>5690.2814</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>94778.4647</v>
+        <v>84830.3073</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8164</v>
+        <v>84830.3073</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.7078</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94778.4647</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0425</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.6195</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5690.2814</v>
       </c>
       <c r="F11" s="1">
         <v>415.755</v>
       </c>
       <c r="G11" s="1">
-        <v>6106.0364</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>99739.821</v>
       </c>
       <c r="I11" s="1">
-        <v>97325.3956</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.9392</v>
+        <v>99739.821</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87325.3956</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.3464</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7325.3956</v>
       </c>
-      <c r="O11" s="1">
-        <v>2674.6044</v>
-      </c>
-      <c r="P11" s="1">
-        <v>109701.821</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.047</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.6646</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6106.0364</v>
       </c>
       <c r="F12" s="1">
         <v>644.8101</v>
       </c>
       <c r="G12" s="1">
-        <v>6750.8465</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>107301.3777</v>
       </c>
       <c r="I12" s="1">
-        <v>108715.7075</v>
+        <v>2674.6044</v>
       </c>
       <c r="J12" s="1">
-        <v>16.104</v>
+        <v>109975.9821</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98715.7075</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.1669</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11390.3118</v>
       </c>
-      <c r="O12" s="1">
-        <v>1284.2925</v>
-      </c>
-      <c r="P12" s="1">
-        <v>119916.9175</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0018</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.2588</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6750.8465</v>
       </c>
       <c r="F13" s="1">
         <v>653.8283</v>
       </c>
       <c r="G13" s="1">
-        <v>7404.6748</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>127133.0831</v>
+        <v>115907.3082</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>1284.2925</v>
       </c>
       <c r="J13" s="1">
-        <v>16.206</v>
+        <v>117191.6008</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.2943</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11284.2925</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>127133.0831</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0214</v>
+        <v>-0.0232</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>16.8469</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7404.6748</v>
       </c>
       <c r="F14" s="1">
         <v>-7404.6748</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124099.3878</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.206</v>
+        <v>124099.3878</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14.8555</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.47</v>
       </c>
-      <c r="L14" s="1">
-        <v>3132.1774</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>127231.5653</v>
+        <v>2855.6081</v>
       </c>
       <c r="O14" s="1">
-        <v>127231.5653</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127231.5653</v>
+        <v>126954.9959</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0722</v>
+        <v>-0.0243</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4451,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.8015</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.2089</v>
+        <v>14.8581</v>
       </c>
       <c r="D3" s="1">
-        <v>16.1581</v>
+        <v>14.7274</v>
       </c>
       <c r="E3" s="1">
-        <v>16.1775</v>
+        <v>14.7856</v>
       </c>
       <c r="F3" s="1">
-        <v>16.2028</v>
+        <v>14.849</v>
       </c>
       <c r="G3" s="1">
-        <v>16.206</v>
+        <v>14.8555</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0528</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.004</v>
+        <v>0.0368</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0049</v>
+        <v>0.0372</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0041</v>
+        <v>0.0374</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0039</v>
+        <v>0.037</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0038</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.0946</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1073</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>0.106</v>
+        <v>0.0939</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1066</v>
+        <v>0.0949</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1071</v>
+        <v>0.0958</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1073</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.3432</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.2271</v>
+        <v>0.1716</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.2376</v>
+        <v>0.18</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.2294</v>
+        <v>0.1799</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.2261</v>
+        <v>0.1745</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.2251</v>
+        <v>0.1737</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1127</v>
+        <v>-0.042</v>
       </c>
       <c r="D7" s="3">
-        <v>0.117</v>
+        <v>0.1119</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1161</v>
+        <v>0.1108</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1148</v>
+        <v>0.1093</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1137</v>
+        <v>0.1093</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3131.6183</v>
+        <v>2886.5259</v>
       </c>
       <c r="D8" s="1">
-        <v>2956.4397</v>
+        <v>2647.812</v>
       </c>
       <c r="E8" s="1">
-        <v>3039.1122</v>
+        <v>2715.0102</v>
       </c>
       <c r="F8" s="1">
-        <v>3124.5879</v>
+        <v>2784.2549</v>
       </c>
       <c r="G8" s="1">
-        <v>3132.1774</v>
+        <v>2855.6081</v>
       </c>
     </row>
   </sheetData>
